--- a/Other - Read ME/Evaluation grid.xlsx
+++ b/Other - Read ME/Evaluation grid.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Dynamic_Project_London\Other - Read ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E2D3B1-FE24-48BE-A2DB-BE2C0546778F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DD5E00-D6D9-40A4-A9D9-6F43E627A62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation criteria" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Teams =&gt;</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Commented code including the list of refernces used during development</t>
+  </si>
+  <si>
+    <t>Summary of past transactions / Thread for statistics / Mail sent / Images integrated / Sounds / Beautiful checkout animations</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -962,7 +965,9 @@
       <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
